--- a/toydata/transactions.xlsx
+++ b/toydata/transactions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3555F9ED-B7B0-C749-AEA9-1410E2CD9EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302823C2-4445-E944-ACE1-5033A8FE0B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5800" yWindow="500" windowWidth="32600" windowHeight="18620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="68">
   <si>
     <t>PROJECT SUMMARY</t>
   </si>
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>Apr-23</t>
+  </si>
+  <si>
+    <t>Sep-22</t>
+  </si>
+  <si>
+    <t>Aug-22</t>
+  </si>
+  <si>
+    <t>Vivaldi</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1591,7 +1600,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="5"/>
       <c r="N12" s="16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="O12" s="7">
         <v>3300</v>
@@ -1608,6 +1617,356 @@
       <c r="S12" s="6"/>
       <c r="T12" s="11" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="7">
+        <v>3300</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6"/>
+      <c r="T13" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="7">
+        <v>3000</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6"/>
+      <c r="T14" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="7">
+        <v>2000</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="7">
+        <v>6000</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6"/>
+      <c r="T16" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="7">
+        <v>6000</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="7">
+        <v>6000</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6"/>
+      <c r="T18" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="7">
+        <v>6000</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
